--- a/Src/DetailedSamples/Samples/Table/Output/RemoveTables.xlsx
+++ b/Src/DetailedSamples/Samples/Table/Output/RemoveTables.xlsx
@@ -10,11 +10,10 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943D3548-9A00-4CEE-B293-F147E9C77EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" activeTab="1" firstSheet="0"/>
+    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="Rd126e878c9ed4077"/>
-    <sheet name="Xceed Trial License" sheetId="2" r:id="R77f9f0b1c799497c"/>
+    <sheet name="Sheet1" sheetId="1" r:id="R28260195f80644b9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
   <si>
     <t xml:space="preserve">Tables</t>
   </si>
@@ -996,19 +995,13 @@
   </si>
   <si>
     <t xml:space="preserve">The table has been removed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This workbook was created using the trial version of Xceed Workbooks for .NET.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please contact sales@xceed.com if you are ready to purchase.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <color theme="1"/>
       <sz val="11"/>
@@ -1030,12 +1023,6 @@
       <b/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFF8C00"/>
-      <sz val="16"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1063,7 +1050,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1079,7 +1066,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="0">
     <cellStyle xfId="1" name="Ctx_Hyperlink" builtinId="0"/>
@@ -3266,24 +3252,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>